--- a/Experimentos/teste_geral/Dataset7/statistic_average_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset7/statistic_average_fitness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711DD3B-08E0-46D3-8FD3-B7D47B900B2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60F1B1E-B3C7-4AB7-9B51-08C333BC0CD7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,7 +641,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:L130" totalsRowShown="0">
   <autoFilter ref="A2:L130" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L130">
-    <sortCondition ref="F2:F130"/>
+    <sortCondition ref="I2:I130"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
@@ -960,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
@@ -1045,28 +1045,28 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0.8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>0.4</v>
       </c>
       <c r="I3">
-        <v>327.56</v>
+        <v>253.2</v>
       </c>
       <c r="J3">
-        <v>22.923490135666501</v>
+        <v>30.706351134578</v>
       </c>
       <c r="K3">
-        <v>5130.04</v>
+        <v>4321.72</v>
       </c>
       <c r="L3">
-        <v>6659.42</v>
+        <v>7230.76</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1077,31 +1077,31 @@
         <v>1500</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0.7</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>0.4</v>
       </c>
       <c r="I4">
-        <v>333.12</v>
+        <v>256.92</v>
       </c>
       <c r="J4">
-        <v>32.162487465990502</v>
+        <v>23.776324358487301</v>
       </c>
       <c r="K4">
-        <v>4977.8599999999997</v>
+        <v>3319.96</v>
       </c>
       <c r="L4">
-        <v>6138.46</v>
+        <v>6701.92</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,28 +1115,28 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0.8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>0.2</v>
       </c>
       <c r="I5">
-        <v>344.72</v>
+        <v>257.2</v>
       </c>
       <c r="J5">
-        <v>24.055801794993201</v>
+        <v>28.4787640181241</v>
       </c>
       <c r="K5">
-        <v>3944.02</v>
+        <v>4820.54</v>
       </c>
       <c r="L5">
-        <v>6380.46</v>
+        <v>7624.96</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1153,60 +1153,60 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>0.2</v>
       </c>
       <c r="I6">
-        <v>345.64</v>
+        <v>259.04000000000002</v>
       </c>
       <c r="J6">
-        <v>29.655866198780899</v>
+        <v>22.958188081815099</v>
       </c>
       <c r="K6">
-        <v>3145.64</v>
+        <v>4309.92</v>
       </c>
       <c r="L6">
-        <v>7744.02</v>
+        <v>6939.78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>1500</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0.8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>0.4</v>
       </c>
       <c r="I7">
-        <v>348.2</v>
+        <v>259.24</v>
       </c>
       <c r="J7">
-        <v>26.291443475016699</v>
+        <v>21.831683398217301</v>
       </c>
       <c r="K7">
-        <v>2385.52</v>
+        <v>3835.36</v>
       </c>
       <c r="L7">
-        <v>3121.78</v>
+        <v>6984.12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1220,28 +1220,28 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0.7</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I8">
-        <v>348.56</v>
+        <v>262.27999999999997</v>
       </c>
       <c r="J8">
-        <v>28.453583254135101</v>
+        <v>25.383490697695599</v>
       </c>
       <c r="K8">
-        <v>4161.4799999999996</v>
+        <v>4536.28</v>
       </c>
       <c r="L8">
-        <v>5848.52</v>
+        <v>6850.8</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>1500</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -1261,57 +1261,57 @@
         <v>0.8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I9">
-        <v>351.08</v>
+        <v>263.39999999999998</v>
       </c>
       <c r="J9">
-        <v>26.647956769703701</v>
+        <v>30.626132632116601</v>
       </c>
       <c r="K9">
-        <v>3979.72</v>
+        <v>4396.76</v>
       </c>
       <c r="L9">
-        <v>7669.34</v>
+        <v>7219.92</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>1500</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>0.4</v>
       </c>
       <c r="I10">
-        <v>355.48</v>
+        <v>263.76</v>
       </c>
       <c r="J10">
-        <v>30.944621503582798</v>
+        <v>26.091040607840799</v>
       </c>
       <c r="K10">
-        <v>2487.06</v>
+        <v>3039.02</v>
       </c>
       <c r="L10">
-        <v>2939.78</v>
+        <v>5935.48</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1325,39 +1325,39 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0.7</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>0.4</v>
       </c>
       <c r="I11">
-        <v>357.44</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="J11">
-        <v>24.106563421607799</v>
+        <v>27.906271696520101</v>
       </c>
       <c r="K11">
-        <v>3673.76</v>
+        <v>3023.46</v>
       </c>
       <c r="L11">
-        <v>6957.82</v>
+        <v>5805.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>1500</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1366,22 +1366,22 @@
         <v>0.7</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I12">
-        <v>357.64</v>
+        <v>268.32</v>
       </c>
       <c r="J12">
-        <v>28.221098490313899</v>
+        <v>27.292079437082101</v>
       </c>
       <c r="K12">
-        <v>2769.46</v>
+        <v>2331.7399999999998</v>
       </c>
       <c r="L12">
-        <v>7080.86</v>
+        <v>3458.48</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1392,31 +1392,31 @@
         <v>1500</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>369.72</v>
+        <v>268.72000000000003</v>
       </c>
       <c r="J13">
-        <v>30.289298440208199</v>
+        <v>26.532274685748298</v>
       </c>
       <c r="K13">
-        <v>3277.42</v>
+        <v>3738.82</v>
       </c>
       <c r="L13">
-        <v>5871.34</v>
+        <v>5785.98</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,63 +1430,63 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I14">
-        <v>374.16</v>
+        <v>269.16000000000003</v>
       </c>
       <c r="J14">
-        <v>31.500704754020902</v>
+        <v>27.891475400200601</v>
       </c>
       <c r="K14">
-        <v>2112.42</v>
+        <v>2404.94</v>
       </c>
       <c r="L14">
-        <v>2947.9</v>
+        <v>3432.7</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B15">
         <v>1500</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0.7</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>0.2</v>
       </c>
       <c r="I15">
-        <v>377.32</v>
+        <v>269.52</v>
       </c>
       <c r="J15">
-        <v>34.540665888196102</v>
+        <v>29.0532201313382</v>
       </c>
       <c r="K15">
-        <v>1824.7</v>
+        <v>4250.78</v>
       </c>
       <c r="L15">
-        <v>2759.5</v>
+        <v>6859.62</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1503,25 +1503,25 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>378.84</v>
+        <v>270.56</v>
       </c>
       <c r="J16">
-        <v>27.900078852935099</v>
+        <v>20.606950283824101</v>
       </c>
       <c r="K16">
-        <v>2870.2</v>
+        <v>2935.52</v>
       </c>
       <c r="L16">
-        <v>5448.78</v>
+        <v>5943.52</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1538,30 +1538,30 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I17">
-        <v>381.8</v>
+        <v>270.60000000000002</v>
       </c>
       <c r="J17">
-        <v>30.008665415176299</v>
+        <v>31.615818825391798</v>
       </c>
       <c r="K17">
-        <v>2360.1999999999998</v>
+        <v>2899.46</v>
       </c>
       <c r="L17">
-        <v>5589.68</v>
+        <v>5728.86</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>1500</v>
@@ -1576,57 +1576,57 @@
         <v>0.8</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>0.4</v>
       </c>
       <c r="I18">
-        <v>381.84</v>
+        <v>271.32</v>
       </c>
       <c r="J18">
-        <v>30.5046619387922</v>
+        <v>32.458243945105799</v>
       </c>
       <c r="K18">
-        <v>2135.1799999999998</v>
+        <v>2416.94</v>
       </c>
       <c r="L18">
-        <v>7233.46</v>
+        <v>3644.6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>1500</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
-        <v>385.4</v>
+        <v>271.64</v>
       </c>
       <c r="J19">
-        <v>37.095013141930501</v>
+        <v>25.816862706378501</v>
       </c>
       <c r="K19">
-        <v>3000.16</v>
+        <v>2542.56</v>
       </c>
       <c r="L19">
-        <v>4338.3599999999997</v>
+        <v>3626.06</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1640,63 +1640,63 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0.7</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>0.4</v>
       </c>
       <c r="I20">
-        <v>389.04</v>
+        <v>271.95999999999998</v>
       </c>
       <c r="J20">
-        <v>33.067784927327601</v>
+        <v>23.9348783159639</v>
       </c>
       <c r="K20">
-        <v>2311.8000000000002</v>
+        <v>4539.4799999999996</v>
       </c>
       <c r="L20">
-        <v>6940.06</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B21">
         <v>1500</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>0.4</v>
       </c>
       <c r="I21">
-        <v>393.32</v>
+        <v>272.83999999999997</v>
       </c>
       <c r="J21">
-        <v>31.454373304836299</v>
+        <v>23.698405009620299</v>
       </c>
       <c r="K21">
-        <v>1746.64</v>
+        <v>3377.42</v>
       </c>
       <c r="L21">
-        <v>2177.2399999999998</v>
+        <v>6393.98</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1710,28 +1710,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0.8</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22">
         <v>0.2</v>
       </c>
       <c r="I22">
-        <v>398.92</v>
+        <v>272.95999999999998</v>
       </c>
       <c r="J22">
-        <v>39.163677049020798</v>
+        <v>25.035143298970699</v>
       </c>
       <c r="K22">
-        <v>2891.28</v>
+        <v>3641.42</v>
       </c>
       <c r="L22">
-        <v>7217.94</v>
+        <v>4966.9799999999996</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1742,136 +1742,136 @@
         <v>1500</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>398.96</v>
+        <v>274.83999999999997</v>
       </c>
       <c r="J23">
-        <v>31.539790741220799</v>
+        <v>22.9576653865326</v>
       </c>
       <c r="K23">
-        <v>3194.3</v>
+        <v>3758.64</v>
       </c>
       <c r="L23">
-        <v>6975.62</v>
+        <v>6333.78</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B24">
         <v>1500</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I24">
-        <v>399.64</v>
+        <v>277.04000000000002</v>
       </c>
       <c r="J24">
-        <v>29.7877558738485</v>
+        <v>28.969611664639199</v>
       </c>
       <c r="K24">
-        <v>2210.7800000000002</v>
+        <v>3425.96</v>
       </c>
       <c r="L24">
-        <v>3668.8</v>
+        <v>5130.28</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B25">
         <v>1500</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I25">
-        <v>400.12</v>
+        <v>277.2</v>
       </c>
       <c r="J25">
-        <v>35.214565168407198</v>
+        <v>33.915188337970299</v>
       </c>
       <c r="K25">
-        <v>2201.36</v>
+        <v>2190.02</v>
       </c>
       <c r="L25">
-        <v>5436.26</v>
+        <v>3011.8</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B26">
         <v>1500</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>0.2</v>
       </c>
       <c r="I26">
-        <v>400.68</v>
+        <v>277.2</v>
       </c>
       <c r="J26">
-        <v>39.386515458974003</v>
+        <v>30.4525860970788</v>
       </c>
       <c r="K26">
-        <v>2063.8200000000002</v>
+        <v>3356.6</v>
       </c>
       <c r="L26">
-        <v>3715.32</v>
+        <v>5640.6</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,25 +1888,25 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>0.4</v>
       </c>
       <c r="I27">
-        <v>402.08</v>
+        <v>277.56</v>
       </c>
       <c r="J27">
-        <v>35.776998197165703</v>
+        <v>26.7440909361301</v>
       </c>
       <c r="K27">
-        <v>1389.98</v>
+        <v>1534.4</v>
       </c>
       <c r="L27">
-        <v>2692.66</v>
+        <v>2812.02</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1920,33 +1920,33 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>0.2</v>
       </c>
       <c r="I28">
-        <v>411.04</v>
+        <v>277.64</v>
       </c>
       <c r="J28">
-        <v>32.9830016826849</v>
+        <v>27.7580690971112</v>
       </c>
       <c r="K28">
-        <v>1549.28</v>
+        <v>2742.18</v>
       </c>
       <c r="L28">
-        <v>2100.36</v>
+        <v>3701.72</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B29">
         <v>1500</v>
@@ -1958,25 +1958,25 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I29">
-        <v>411.2</v>
+        <v>277.68</v>
       </c>
       <c r="J29">
-        <v>30.970954134478902</v>
+        <v>30.102119526704399</v>
       </c>
       <c r="K29">
-        <v>1697.9</v>
+        <v>3117.16</v>
       </c>
       <c r="L29">
-        <v>2136.38</v>
+        <v>4399.68</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1990,28 +1990,28 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0.7</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30">
         <v>0.4</v>
       </c>
       <c r="I30">
-        <v>413.36</v>
+        <v>277.72000000000003</v>
       </c>
       <c r="J30">
-        <v>29.1024122711503</v>
+        <v>30.371065177237298</v>
       </c>
       <c r="K30">
-        <v>2392</v>
+        <v>1913.66</v>
       </c>
       <c r="L30">
-        <v>3474.96</v>
+        <v>2865.88</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2022,31 +2022,31 @@
         <v>1500</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
-        <v>414.68</v>
+        <v>277.72000000000003</v>
       </c>
       <c r="J31">
-        <v>40.918670555139002</v>
+        <v>25.468443219011199</v>
       </c>
       <c r="K31">
-        <v>2092.04</v>
+        <v>1777.18</v>
       </c>
       <c r="L31">
-        <v>3509.52</v>
+        <v>2921.82</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2057,31 +2057,31 @@
         <v>1500</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>0.2</v>
       </c>
       <c r="I32">
-        <v>418.24</v>
+        <v>279.12</v>
       </c>
       <c r="J32">
-        <v>36.7404735952056</v>
+        <v>21.1892803086843</v>
       </c>
       <c r="K32">
-        <v>1277.9000000000001</v>
+        <v>2810.48</v>
       </c>
       <c r="L32">
-        <v>2614.6</v>
+        <v>3471.24</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2095,33 +2095,33 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0.7</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I33">
-        <v>420.08</v>
+        <v>279.16000000000003</v>
       </c>
       <c r="J33">
-        <v>39.4156517135008</v>
+        <v>33.447487200087203</v>
       </c>
       <c r="K33">
-        <v>1364.42</v>
+        <v>2629.26</v>
       </c>
       <c r="L33">
-        <v>2575.1999999999998</v>
+        <v>3490.54</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B34">
         <v>1500</v>
@@ -2133,60 +2133,60 @@
         <v>14</v>
       </c>
       <c r="E34">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34">
         <v>0.4</v>
       </c>
       <c r="I34">
-        <v>428.76</v>
+        <v>280.04000000000002</v>
       </c>
       <c r="J34">
-        <v>36.568598551215999</v>
+        <v>27.033283189431501</v>
       </c>
       <c r="K34">
-        <v>2184.44</v>
+        <v>2138.2800000000002</v>
       </c>
       <c r="L34">
-        <v>4995.78</v>
+        <v>2468.42</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B35">
         <v>1500</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I35">
-        <v>431.88</v>
+        <v>281.2</v>
       </c>
       <c r="J35">
-        <v>39.115030359185397</v>
+        <v>27.7099260193887</v>
       </c>
       <c r="K35">
-        <v>2130.44</v>
+        <v>2266.8200000000002</v>
       </c>
       <c r="L35">
-        <v>5042.18</v>
+        <v>2984.68</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2197,31 +2197,31 @@
         <v>1500</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I36">
-        <v>434</v>
+        <v>284.92</v>
       </c>
       <c r="J36">
-        <v>39.026145082495603</v>
+        <v>31.754583921065599</v>
       </c>
       <c r="K36">
-        <v>1964.86</v>
+        <v>2185.44</v>
       </c>
       <c r="L36">
-        <v>3700.98</v>
+        <v>2834.9</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2235,33 +2235,33 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>0.7</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I37">
-        <v>437.16</v>
+        <v>285.83999999999997</v>
       </c>
       <c r="J37">
-        <v>34.028435168252997</v>
+        <v>35.8214237572992</v>
       </c>
       <c r="K37">
-        <v>1794.04</v>
+        <v>1955.06</v>
       </c>
       <c r="L37">
-        <v>3506.04</v>
+        <v>2768.5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B38">
         <v>1500</v>
@@ -2270,33 +2270,33 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0.7</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>0.2</v>
       </c>
       <c r="I38">
-        <v>439.56</v>
+        <v>286.36</v>
       </c>
       <c r="J38">
-        <v>47.479326027229902</v>
+        <v>29.3848668535353</v>
       </c>
       <c r="K38">
-        <v>1511.24</v>
+        <v>3363.22</v>
       </c>
       <c r="L38">
-        <v>2545.66</v>
+        <v>4456.1400000000003</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>1500</v>
@@ -2311,27 +2311,27 @@
         <v>0.8</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>0.2</v>
       </c>
       <c r="I39">
-        <v>444.76</v>
+        <v>286.48</v>
       </c>
       <c r="J39">
-        <v>39.8615403616066</v>
+        <v>28.384671919893599</v>
       </c>
       <c r="K39">
-        <v>2233.2399999999998</v>
+        <v>2065.2600000000002</v>
       </c>
       <c r="L39">
-        <v>4876.6400000000003</v>
+        <v>2456.66</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>1500</v>
@@ -2340,28 +2340,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <v>0.2</v>
       </c>
       <c r="I40">
-        <v>446.16</v>
+        <v>287.56</v>
       </c>
       <c r="J40">
-        <v>33.751657737065301</v>
+        <v>38.932331037326797</v>
       </c>
       <c r="K40">
-        <v>2344.38</v>
+        <v>1899.38</v>
       </c>
       <c r="L40">
-        <v>4845.0200000000004</v>
+        <v>2871.12</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2372,31 +2372,31 @@
         <v>1500</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
       <c r="E41">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <v>0.2</v>
       </c>
       <c r="I41">
-        <v>446.96</v>
+        <v>287.72000000000003</v>
       </c>
       <c r="J41">
-        <v>41.206290781869697</v>
+        <v>36.373638806146403</v>
       </c>
       <c r="K41">
-        <v>2077.1799999999998</v>
+        <v>2979.12</v>
       </c>
       <c r="L41">
-        <v>3474.02</v>
+        <v>3699.54</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2410,28 +2410,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>0.2</v>
       </c>
       <c r="I42">
-        <v>448.52</v>
+        <v>288.12</v>
       </c>
       <c r="J42">
-        <v>44.054166658784901</v>
+        <v>27.458798225705301</v>
       </c>
       <c r="K42">
-        <v>2119.34</v>
+        <v>1878.32</v>
       </c>
       <c r="L42">
-        <v>3678.26</v>
+        <v>2409.1799999999998</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2445,28 +2445,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G43">
         <v>0.4</v>
       </c>
       <c r="I43">
-        <v>449.52</v>
+        <v>289.16000000000003</v>
       </c>
       <c r="J43">
-        <v>53.36</v>
+        <v>25.393195939069901</v>
       </c>
       <c r="K43">
-        <v>3659.32</v>
+        <v>4173.16</v>
       </c>
       <c r="L43">
-        <v>4883.6400000000003</v>
+        <v>5102.7</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2480,28 +2480,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>0.4</v>
       </c>
       <c r="I44">
-        <v>458.88</v>
+        <v>291.36</v>
       </c>
       <c r="J44">
-        <v>45.675656536058597</v>
+        <v>30.556020683328502</v>
       </c>
       <c r="K44">
-        <v>1412.14</v>
+        <v>1634.08</v>
       </c>
       <c r="L44">
-        <v>2427.2600000000002</v>
+        <v>2130.62</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2521,22 +2521,22 @@
         <v>0.8</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I45">
-        <v>459.24</v>
+        <v>292</v>
       </c>
       <c r="J45">
-        <v>44.721162775580801</v>
+        <v>31.182046116315</v>
       </c>
       <c r="K45">
-        <v>1421.04</v>
+        <v>2194.5</v>
       </c>
       <c r="L45">
-        <v>2387.48</v>
+        <v>2522.7399999999998</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2550,28 +2550,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0.7</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>0.2</v>
       </c>
       <c r="I46">
-        <v>463.84</v>
+        <v>299.88</v>
       </c>
       <c r="J46">
-        <v>38.453795651404803</v>
+        <v>28.544449548029402</v>
       </c>
       <c r="K46">
-        <v>1422.3</v>
+        <v>1800.92</v>
       </c>
       <c r="L46">
-        <v>2330.66</v>
+        <v>2131.04</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2585,28 +2585,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>0.4</v>
       </c>
       <c r="I47">
-        <v>463.88</v>
+        <v>314.27999999999997</v>
       </c>
       <c r="J47">
-        <v>42.873600268696798</v>
+        <v>35.0268696859996</v>
       </c>
       <c r="K47">
-        <v>1285.96</v>
+        <v>1894.56</v>
       </c>
       <c r="L47">
-        <v>2370.14</v>
+        <v>2133.3200000000002</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2626,22 +2626,22 @@
         <v>0.8</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I48">
-        <v>474.88</v>
+        <v>319.24</v>
       </c>
       <c r="J48">
-        <v>72.4752757842286</v>
+        <v>27.270174183528699</v>
       </c>
       <c r="K48">
-        <v>3722.28</v>
+        <v>3749.34</v>
       </c>
       <c r="L48">
-        <v>4765.74</v>
+        <v>4387.4799999999996</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2652,71 +2652,71 @@
         <v>1500</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49">
         <v>0.2</v>
       </c>
       <c r="I49">
-        <v>559.6</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="J49">
-        <v>26.375746434935198</v>
+        <v>26.469605210505101</v>
       </c>
       <c r="K49">
-        <v>3607.96</v>
+        <v>3547.68</v>
       </c>
       <c r="L49">
-        <v>5451.96</v>
+        <v>4328.38</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B50">
         <v>1500</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I50">
-        <v>574.20000000000005</v>
+        <v>320.48</v>
       </c>
       <c r="J50">
-        <v>27.725078899797499</v>
+        <v>31.273145028922102</v>
       </c>
       <c r="K50">
-        <v>3345.54</v>
+        <v>1820.28</v>
       </c>
       <c r="L50">
-        <v>5484.9</v>
+        <v>2130.3200000000002</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B51">
         <v>1500</v>
@@ -2725,28 +2725,28 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I51">
-        <v>582.28</v>
+        <v>327.56</v>
       </c>
       <c r="J51">
-        <v>32.802463322134798</v>
+        <v>22.923490135666501</v>
       </c>
       <c r="K51">
-        <v>1665.02</v>
+        <v>5130.04</v>
       </c>
       <c r="L51">
-        <v>2795.74</v>
+        <v>6659.42</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2760,33 +2760,33 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I52">
-        <v>604.67999999999995</v>
+        <v>333.12</v>
       </c>
       <c r="J52">
-        <v>25.832104056774</v>
+        <v>32.162487465990502</v>
       </c>
       <c r="K52">
-        <v>2860.2</v>
+        <v>4977.8599999999997</v>
       </c>
       <c r="L52">
-        <v>5631.28</v>
+        <v>6138.46</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B53">
         <v>1500</v>
@@ -2795,33 +2795,33 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
       <c r="G53">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I53">
-        <v>609.08000000000004</v>
+        <v>344.72</v>
       </c>
       <c r="J53">
-        <v>26.830460301679501</v>
+        <v>24.055801794993201</v>
       </c>
       <c r="K53">
-        <v>1286.8399999999999</v>
+        <v>3944.02</v>
       </c>
       <c r="L53">
-        <v>2760.28</v>
+        <v>6380.46</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B54">
         <v>1500</v>
@@ -2830,7 +2830,7 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0.8</v>
@@ -2842,21 +2842,21 @@
         <v>0.2</v>
       </c>
       <c r="I54">
-        <v>613.6</v>
+        <v>345.64</v>
       </c>
       <c r="J54">
-        <v>28.207800339622299</v>
+        <v>29.655866198780899</v>
       </c>
       <c r="K54">
-        <v>1473.08</v>
+        <v>3145.64</v>
       </c>
       <c r="L54">
-        <v>2815.12</v>
+        <v>7744.02</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B55">
         <v>1500</v>
@@ -2865,7 +2865,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0.8</v>
@@ -2877,21 +2877,21 @@
         <v>0.4</v>
       </c>
       <c r="I55">
-        <v>614.4</v>
+        <v>348.2</v>
       </c>
       <c r="J55">
-        <v>23.923210486889001</v>
+        <v>26.291443475016699</v>
       </c>
       <c r="K55">
-        <v>2697.02</v>
+        <v>2385.52</v>
       </c>
       <c r="L55">
-        <v>5757.92</v>
+        <v>3121.78</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B56">
         <v>1500</v>
@@ -2900,42 +2900,42 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F56" t="s">
         <v>11</v>
       </c>
       <c r="G56">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I56">
-        <v>637.4</v>
+        <v>348.56</v>
       </c>
       <c r="J56">
-        <v>23.783187338958498</v>
+        <v>28.453583254135101</v>
       </c>
       <c r="K56">
-        <v>1545.04</v>
+        <v>4161.4799999999996</v>
       </c>
       <c r="L56">
-        <v>2827.34</v>
+        <v>5848.52</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>1500</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0.8</v>
@@ -2947,33 +2947,33 @@
         <v>0.4</v>
       </c>
       <c r="I57">
-        <v>639.4</v>
+        <v>351.08</v>
       </c>
       <c r="J57">
-        <v>26.9228527463194</v>
+        <v>26.647956769703701</v>
       </c>
       <c r="K57">
-        <v>1154.5</v>
+        <v>3979.72</v>
       </c>
       <c r="L57">
-        <v>2390.44</v>
+        <v>7669.34</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>1500</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -2982,16 +2982,16 @@
         <v>0.4</v>
       </c>
       <c r="I58">
-        <v>672.36</v>
+        <v>355.48</v>
       </c>
       <c r="J58">
-        <v>21.812620200241799</v>
+        <v>30.944621503582798</v>
       </c>
       <c r="K58">
-        <v>2273.36</v>
+        <v>2487.06</v>
       </c>
       <c r="L58">
-        <v>5037.82</v>
+        <v>2939.78</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3005,7 +3005,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>0.7</v>
@@ -3017,16 +3017,16 @@
         <v>0.4</v>
       </c>
       <c r="I59">
-        <v>686.72</v>
+        <v>357.44</v>
       </c>
       <c r="J59">
-        <v>20.787534726369</v>
+        <v>24.106563421607799</v>
       </c>
       <c r="K59">
-        <v>2108.58</v>
+        <v>3673.76</v>
       </c>
       <c r="L59">
-        <v>4769.42</v>
+        <v>6957.82</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3040,28 +3040,28 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I60">
-        <v>692.72</v>
+        <v>357.64</v>
       </c>
       <c r="J60">
-        <v>17.282407239733701</v>
+        <v>28.221098490313899</v>
       </c>
       <c r="K60">
-        <v>2267.04</v>
+        <v>2769.46</v>
       </c>
       <c r="L60">
-        <v>4802.42</v>
+        <v>7080.86</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3072,36 +3072,36 @@
         <v>1500</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F61" t="s">
         <v>11</v>
       </c>
       <c r="G61">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I61">
-        <v>693.24</v>
+        <v>369.72</v>
       </c>
       <c r="J61">
-        <v>18.0305962186501</v>
+        <v>30.289298440208199</v>
       </c>
       <c r="K61">
-        <v>2602.16</v>
+        <v>3277.42</v>
       </c>
       <c r="L61">
-        <v>4763.54</v>
+        <v>5871.34</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>1500</v>
@@ -3110,7 +3110,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>0.8</v>
@@ -3122,16 +3122,16 @@
         <v>0.2</v>
       </c>
       <c r="I62">
-        <v>695.84</v>
+        <v>374.16</v>
       </c>
       <c r="J62">
-        <v>16.1088298768098</v>
+        <v>31.500704754020902</v>
       </c>
       <c r="K62">
-        <v>2309.7800000000002</v>
+        <v>2112.42</v>
       </c>
       <c r="L62">
-        <v>4794.04</v>
+        <v>2947.9</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>0.7</v>
@@ -3154,68 +3154,68 @@
         <v>11</v>
       </c>
       <c r="G63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I63">
-        <v>701.12</v>
+        <v>377.32</v>
       </c>
       <c r="J63">
-        <v>19.0458814445538</v>
+        <v>34.540665888196102</v>
       </c>
       <c r="K63">
-        <v>1066.3</v>
+        <v>1824.7</v>
       </c>
       <c r="L63">
-        <v>2378.44</v>
+        <v>2759.5</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B64">
         <v>1500</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
       </c>
       <c r="G64">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I64">
-        <v>703.88</v>
+        <v>378.84</v>
       </c>
       <c r="J64">
-        <v>16.431238541266399</v>
+        <v>27.900078852935099</v>
       </c>
       <c r="K64">
-        <v>1219.8800000000001</v>
+        <v>2870.2</v>
       </c>
       <c r="L64">
-        <v>2396.04</v>
+        <v>5448.78</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B65">
         <v>1500</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>0.8</v>
@@ -3224,54 +3224,54 @@
         <v>11</v>
       </c>
       <c r="G65">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I65">
-        <v>706.92</v>
+        <v>381.8</v>
       </c>
       <c r="J65">
-        <v>17.6191259715117</v>
+        <v>30.008665415176299</v>
       </c>
       <c r="K65">
-        <v>1197.32</v>
+        <v>2360.1999999999998</v>
       </c>
       <c r="L65">
-        <v>2400.02</v>
+        <v>5589.68</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B66">
         <v>1500</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
       </c>
       <c r="G66">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I66">
-        <v>707.96</v>
+        <v>381.84</v>
       </c>
       <c r="J66">
-        <v>15.207840083325401</v>
+        <v>30.5046619387922</v>
       </c>
       <c r="K66">
-        <v>1179.08</v>
+        <v>2135.1799999999998</v>
       </c>
       <c r="L66">
-        <v>2379.58</v>
+        <v>7233.46</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3282,31 +3282,31 @@
         <v>1500</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I67">
-        <v>253.2</v>
+        <v>385.4</v>
       </c>
       <c r="J67">
-        <v>30.706351134578</v>
+        <v>37.095013141930501</v>
       </c>
       <c r="K67">
-        <v>4321.72</v>
+        <v>3000.16</v>
       </c>
       <c r="L67">
-        <v>7230.76</v>
+        <v>4338.3599999999997</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3326,57 +3326,57 @@
         <v>0.7</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68">
         <v>0.4</v>
       </c>
       <c r="I68">
-        <v>256.92</v>
+        <v>389.04</v>
       </c>
       <c r="J68">
-        <v>23.776324358487301</v>
+        <v>33.067784927327601</v>
       </c>
       <c r="K68">
-        <v>3319.96</v>
+        <v>2311.8000000000002</v>
       </c>
       <c r="L68">
-        <v>6701.92</v>
+        <v>6940.06</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>1500</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I69">
-        <v>257.2</v>
+        <v>393.32</v>
       </c>
       <c r="J69">
-        <v>28.4787640181241</v>
+        <v>31.454373304836299</v>
       </c>
       <c r="K69">
-        <v>4820.54</v>
+        <v>1746.64</v>
       </c>
       <c r="L69">
-        <v>7624.96</v>
+        <v>2177.2399999999998</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3387,31 +3387,31 @@
         <v>1500</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
       </c>
       <c r="E70">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70">
         <v>0.2</v>
       </c>
       <c r="I70">
-        <v>259.04000000000002</v>
+        <v>398.92</v>
       </c>
       <c r="J70">
-        <v>22.958188081815099</v>
+        <v>39.163677049020798</v>
       </c>
       <c r="K70">
-        <v>4309.92</v>
+        <v>2891.28</v>
       </c>
       <c r="L70">
-        <v>6939.78</v>
+        <v>7217.94</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3428,30 +3428,30 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I71">
-        <v>259.24</v>
+        <v>398.96</v>
       </c>
       <c r="J71">
-        <v>21.831683398217301</v>
+        <v>31.539790741220799</v>
       </c>
       <c r="K71">
-        <v>3835.36</v>
+        <v>3194.3</v>
       </c>
       <c r="L71">
-        <v>6984.12</v>
+        <v>6975.62</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>1500</v>
@@ -3463,25 +3463,25 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72">
         <v>0.4</v>
       </c>
       <c r="I72">
-        <v>262.27999999999997</v>
+        <v>399.64</v>
       </c>
       <c r="J72">
-        <v>25.383490697695599</v>
+        <v>29.7877558738485</v>
       </c>
       <c r="K72">
-        <v>4536.28</v>
+        <v>2210.7800000000002</v>
       </c>
       <c r="L72">
-        <v>6850.8</v>
+        <v>3668.8</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3495,98 +3495,98 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73">
         <v>0.2</v>
       </c>
       <c r="I73">
-        <v>263.39999999999998</v>
+        <v>400.12</v>
       </c>
       <c r="J73">
-        <v>30.626132632116601</v>
+        <v>35.214565168407198</v>
       </c>
       <c r="K73">
-        <v>4396.76</v>
+        <v>2201.36</v>
       </c>
       <c r="L73">
-        <v>7219.92</v>
+        <v>5436.26</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B74">
         <v>1500</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>0.8</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I74">
-        <v>263.76</v>
+        <v>400.68</v>
       </c>
       <c r="J74">
-        <v>26.091040607840799</v>
+        <v>39.386515458974003</v>
       </c>
       <c r="K74">
-        <v>3039.02</v>
+        <v>2063.8200000000002</v>
       </c>
       <c r="L74">
-        <v>5935.48</v>
+        <v>3715.32</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B75">
         <v>1500</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
       <c r="E75">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75">
         <v>0.4</v>
       </c>
       <c r="I75">
-        <v>264.60000000000002</v>
+        <v>402.08</v>
       </c>
       <c r="J75">
-        <v>27.906271696520101</v>
+        <v>35.776998197165703</v>
       </c>
       <c r="K75">
-        <v>3023.46</v>
+        <v>1389.98</v>
       </c>
       <c r="L75">
-        <v>5805.5</v>
+        <v>2692.66</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3600,63 +3600,63 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>0.7</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I76">
-        <v>268.32</v>
+        <v>411.04</v>
       </c>
       <c r="J76">
-        <v>27.292079437082101</v>
+        <v>32.9830016826849</v>
       </c>
       <c r="K76">
-        <v>2331.7399999999998</v>
+        <v>1549.28</v>
       </c>
       <c r="L76">
-        <v>3458.48</v>
+        <v>2100.36</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>1500</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77">
         <v>0.2</v>
       </c>
       <c r="I77">
-        <v>268.72000000000003</v>
+        <v>411.2</v>
       </c>
       <c r="J77">
-        <v>26.532274685748298</v>
+        <v>30.970954134478902</v>
       </c>
       <c r="K77">
-        <v>3738.82</v>
+        <v>1697.9</v>
       </c>
       <c r="L77">
-        <v>5785.98</v>
+        <v>2136.38</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3676,33 +3676,33 @@
         <v>0.7</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78">
         <v>0.4</v>
       </c>
       <c r="I78">
-        <v>269.16000000000003</v>
+        <v>413.36</v>
       </c>
       <c r="J78">
-        <v>27.891475400200601</v>
+        <v>29.1024122711503</v>
       </c>
       <c r="K78">
-        <v>2404.94</v>
+        <v>2392</v>
       </c>
       <c r="L78">
-        <v>3432.7</v>
+        <v>3474.96</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B79">
         <v>1500</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -3711,27 +3711,27 @@
         <v>0.7</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G79">
         <v>0.2</v>
       </c>
       <c r="I79">
-        <v>269.52</v>
+        <v>414.68</v>
       </c>
       <c r="J79">
-        <v>29.0532201313382</v>
+        <v>40.918670555139002</v>
       </c>
       <c r="K79">
-        <v>4250.78</v>
+        <v>2092.04</v>
       </c>
       <c r="L79">
-        <v>6859.62</v>
+        <v>3509.52</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>1500</v>
@@ -3746,27 +3746,27 @@
         <v>0.8</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80">
         <v>0.2</v>
       </c>
       <c r="I80">
-        <v>270.56</v>
+        <v>418.24</v>
       </c>
       <c r="J80">
-        <v>20.606950283824101</v>
+        <v>36.7404735952056</v>
       </c>
       <c r="K80">
-        <v>2935.52</v>
+        <v>1277.9000000000001</v>
       </c>
       <c r="L80">
-        <v>5943.52</v>
+        <v>2614.6</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B81">
         <v>1500</v>
@@ -3781,27 +3781,27 @@
         <v>0.7</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81">
         <v>0.4</v>
       </c>
       <c r="I81">
-        <v>270.60000000000002</v>
+        <v>420.08</v>
       </c>
       <c r="J81">
-        <v>31.615818825391798</v>
+        <v>39.4156517135008</v>
       </c>
       <c r="K81">
-        <v>2899.46</v>
+        <v>1364.42</v>
       </c>
       <c r="L81">
-        <v>5728.86</v>
+        <v>2575.1999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B82">
         <v>1500</v>
@@ -3810,68 +3810,68 @@
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>0.8</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82">
         <v>0.4</v>
       </c>
       <c r="I82">
-        <v>271.32</v>
+        <v>428.76</v>
       </c>
       <c r="J82">
-        <v>32.458243945105799</v>
+        <v>36.568598551215999</v>
       </c>
       <c r="K82">
-        <v>2416.94</v>
+        <v>2184.44</v>
       </c>
       <c r="L82">
-        <v>3644.6</v>
+        <v>4995.78</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B83">
         <v>1500</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G83">
         <v>0.4</v>
       </c>
       <c r="I83">
-        <v>271.64</v>
+        <v>431.88</v>
       </c>
       <c r="J83">
-        <v>25.816862706378501</v>
+        <v>39.115030359185397</v>
       </c>
       <c r="K83">
-        <v>2542.56</v>
+        <v>2130.44</v>
       </c>
       <c r="L83">
-        <v>3626.06</v>
+        <v>5042.18</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>1500</v>
@@ -3880,68 +3880,68 @@
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84">
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>271.95999999999998</v>
+        <v>434</v>
       </c>
       <c r="J84">
-        <v>23.9348783159639</v>
+        <v>39.026145082495603</v>
       </c>
       <c r="K84">
-        <v>4539.4799999999996</v>
+        <v>1964.86</v>
       </c>
       <c r="L84">
-        <v>5272</v>
+        <v>3700.98</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B85">
         <v>1500</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G85">
         <v>0.4</v>
       </c>
       <c r="I85">
-        <v>272.83999999999997</v>
+        <v>437.16</v>
       </c>
       <c r="J85">
-        <v>23.698405009620299</v>
+        <v>34.028435168252997</v>
       </c>
       <c r="K85">
-        <v>3377.42</v>
+        <v>1794.04</v>
       </c>
       <c r="L85">
-        <v>6393.98</v>
+        <v>3506.04</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B86">
         <v>1500</v>
@@ -3950,28 +3950,28 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86">
         <v>0.2</v>
       </c>
       <c r="I86">
-        <v>272.95999999999998</v>
+        <v>439.56</v>
       </c>
       <c r="J86">
-        <v>25.035143298970699</v>
+        <v>47.479326027229902</v>
       </c>
       <c r="K86">
-        <v>3641.42</v>
+        <v>1511.24</v>
       </c>
       <c r="L86">
-        <v>4966.9799999999996</v>
+        <v>2545.66</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3982,31 +3982,31 @@
         <v>1500</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E87">
         <v>0.8</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G87">
         <v>0.2</v>
       </c>
       <c r="I87">
-        <v>274.83999999999997</v>
+        <v>444.76</v>
       </c>
       <c r="J87">
-        <v>22.9576653865326</v>
+        <v>39.8615403616066</v>
       </c>
       <c r="K87">
-        <v>3758.64</v>
+        <v>2233.2399999999998</v>
       </c>
       <c r="L87">
-        <v>6333.78</v>
+        <v>4876.6400000000003</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -4026,22 +4026,22 @@
         <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88">
         <v>0.2</v>
       </c>
       <c r="I88">
-        <v>277.04000000000002</v>
+        <v>446.16</v>
       </c>
       <c r="J88">
-        <v>28.969611664639199</v>
+        <v>33.751657737065301</v>
       </c>
       <c r="K88">
-        <v>3425.96</v>
+        <v>2344.38</v>
       </c>
       <c r="L88">
-        <v>5130.28</v>
+        <v>4845.0200000000004</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -4052,36 +4052,36 @@
         <v>1500</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E89">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G89">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I89">
-        <v>277.2</v>
+        <v>446.96</v>
       </c>
       <c r="J89">
-        <v>33.915188337970299</v>
+        <v>41.206290781869697</v>
       </c>
       <c r="K89">
-        <v>2190.02</v>
+        <v>2077.1799999999998</v>
       </c>
       <c r="L89">
-        <v>3011.8</v>
+        <v>3474.02</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>1500</v>
@@ -4090,33 +4090,33 @@
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G90">
         <v>0.2</v>
       </c>
       <c r="I90">
-        <v>277.2</v>
+        <v>448.52</v>
       </c>
       <c r="J90">
-        <v>30.4525860970788</v>
+        <v>44.054166658784901</v>
       </c>
       <c r="K90">
-        <v>3356.6</v>
+        <v>2119.34</v>
       </c>
       <c r="L90">
-        <v>5640.6</v>
+        <v>3678.26</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B91">
         <v>1500</v>
@@ -4125,28 +4125,28 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>0.7</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91">
         <v>0.4</v>
       </c>
       <c r="I91">
-        <v>277.56</v>
+        <v>449.52</v>
       </c>
       <c r="J91">
-        <v>26.7440909361301</v>
+        <v>53.36</v>
       </c>
       <c r="K91">
-        <v>1534.4</v>
+        <v>3659.32</v>
       </c>
       <c r="L91">
-        <v>2812.02</v>
+        <v>4883.6400000000003</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4160,33 +4160,33 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>0.8</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I92">
-        <v>277.64</v>
+        <v>458.88</v>
       </c>
       <c r="J92">
-        <v>27.7580690971112</v>
+        <v>45.675656536058597</v>
       </c>
       <c r="K92">
-        <v>2742.18</v>
+        <v>1412.14</v>
       </c>
       <c r="L92">
-        <v>3701.72</v>
+        <v>2427.2600000000002</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>1500</v>
@@ -4195,28 +4195,28 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E93">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I93">
-        <v>277.68</v>
+        <v>459.24</v>
       </c>
       <c r="J93">
-        <v>30.102119526704399</v>
+        <v>44.721162775580801</v>
       </c>
       <c r="K93">
-        <v>3117.16</v>
+        <v>1421.04</v>
       </c>
       <c r="L93">
-        <v>4399.68</v>
+        <v>2387.48</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4227,31 +4227,31 @@
         <v>1500</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>0.7</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I94">
-        <v>277.72000000000003</v>
+        <v>463.84</v>
       </c>
       <c r="J94">
-        <v>30.371065177237298</v>
+        <v>38.453795651404803</v>
       </c>
       <c r="K94">
-        <v>1913.66</v>
+        <v>1422.3</v>
       </c>
       <c r="L94">
-        <v>2865.88</v>
+        <v>2330.66</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4265,109 +4265,109 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G95">
         <v>0.4</v>
       </c>
       <c r="I95">
-        <v>277.72000000000003</v>
+        <v>463.88</v>
       </c>
       <c r="J95">
-        <v>25.468443219011199</v>
+        <v>42.873600268696798</v>
       </c>
       <c r="K95">
-        <v>1777.18</v>
+        <v>1285.96</v>
       </c>
       <c r="L95">
-        <v>2921.82</v>
+        <v>2370.14</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B96">
         <v>1500</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E96">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96">
         <v>0.2</v>
       </c>
       <c r="I96">
-        <v>279.12</v>
+        <v>474.88</v>
       </c>
       <c r="J96">
-        <v>21.1892803086843</v>
+        <v>72.4752757842286</v>
       </c>
       <c r="K96">
-        <v>2810.48</v>
+        <v>3722.28</v>
       </c>
       <c r="L96">
-        <v>3471.24</v>
+        <v>4765.74</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B97">
         <v>1500</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97">
         <v>0.7</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G97">
         <v>0.2</v>
       </c>
       <c r="I97">
-        <v>279.16000000000003</v>
+        <v>559.6</v>
       </c>
       <c r="J97">
-        <v>33.447487200087203</v>
+        <v>26.375746434935198</v>
       </c>
       <c r="K97">
-        <v>2629.26</v>
+        <v>3607.96</v>
       </c>
       <c r="L97">
-        <v>3490.54</v>
+        <v>5451.96</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B98">
         <v>1500</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
@@ -4379,24 +4379,24 @@
         <v>12</v>
       </c>
       <c r="G98">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I98">
-        <v>280.04000000000002</v>
+        <v>566.76</v>
       </c>
       <c r="J98">
-        <v>27.033283189431501</v>
+        <v>31.4855903549544</v>
       </c>
       <c r="K98">
-        <v>2138.2800000000002</v>
+        <v>3112.22</v>
       </c>
       <c r="L98">
-        <v>2468.42</v>
+        <v>5446.06</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B99">
         <v>1500</v>
@@ -4405,28 +4405,28 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E99">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G99">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I99">
-        <v>281.2</v>
+        <v>574.20000000000005</v>
       </c>
       <c r="J99">
-        <v>27.7099260193887</v>
+        <v>27.725078899797499</v>
       </c>
       <c r="K99">
-        <v>2266.8200000000002</v>
+        <v>3345.54</v>
       </c>
       <c r="L99">
-        <v>2984.68</v>
+        <v>5484.9</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4440,28 +4440,28 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>0.7</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100">
         <v>0.2</v>
       </c>
       <c r="I100">
-        <v>284.92</v>
+        <v>582.28</v>
       </c>
       <c r="J100">
-        <v>31.754583921065599</v>
+        <v>32.802463322134798</v>
       </c>
       <c r="K100">
-        <v>2185.44</v>
+        <v>1665.02</v>
       </c>
       <c r="L100">
-        <v>2834.9</v>
+        <v>2795.74</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4472,10 +4472,10 @@
         <v>1500</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>0.7</v>
@@ -4487,16 +4487,16 @@
         <v>0.2</v>
       </c>
       <c r="I101">
-        <v>285.83999999999997</v>
+        <v>595.44000000000005</v>
       </c>
       <c r="J101">
-        <v>35.8214237572992</v>
+        <v>29.2411764469215</v>
       </c>
       <c r="K101">
-        <v>1955.06</v>
+        <v>1509.08</v>
       </c>
       <c r="L101">
-        <v>2768.5</v>
+        <v>2716.12</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4507,66 +4507,66 @@
         <v>1500</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G102">
         <v>0.2</v>
       </c>
       <c r="I102">
-        <v>286.36</v>
+        <v>604.67999999999995</v>
       </c>
       <c r="J102">
-        <v>29.3848668535353</v>
+        <v>25.832104056774</v>
       </c>
       <c r="K102">
-        <v>3363.22</v>
+        <v>2860.2</v>
       </c>
       <c r="L102">
-        <v>4456.1400000000003</v>
+        <v>5631.28</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B103">
         <v>1500</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
         <v>14</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
       <c r="G103">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I103">
-        <v>286.48</v>
+        <v>606.67999999999995</v>
       </c>
       <c r="J103">
-        <v>28.384671919893599</v>
+        <v>25.8290069495518</v>
       </c>
       <c r="K103">
-        <v>2065.2600000000002</v>
+        <v>2944.18</v>
       </c>
       <c r="L103">
-        <v>2456.66</v>
+        <v>5467.1</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4577,31 +4577,31 @@
         <v>1500</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E104">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I104">
-        <v>287.56</v>
+        <v>609.08000000000004</v>
       </c>
       <c r="J104">
-        <v>38.932331037326797</v>
+        <v>26.830460301679501</v>
       </c>
       <c r="K104">
-        <v>1899.38</v>
+        <v>1286.8399999999999</v>
       </c>
       <c r="L104">
-        <v>2871.12</v>
+        <v>2760.28</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4615,80 +4615,80 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>0.8</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105">
         <v>0.2</v>
       </c>
       <c r="I105">
-        <v>287.72000000000003</v>
+        <v>613.6</v>
       </c>
       <c r="J105">
-        <v>36.373638806146403</v>
+        <v>28.207800339622299</v>
       </c>
       <c r="K105">
-        <v>2979.12</v>
+        <v>1473.08</v>
       </c>
       <c r="L105">
-        <v>3699.54</v>
+        <v>2815.12</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B106">
         <v>1500</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
       <c r="E106">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I106">
-        <v>288.12</v>
+        <v>614.4</v>
       </c>
       <c r="J106">
-        <v>27.458798225705301</v>
+        <v>23.923210486889001</v>
       </c>
       <c r="K106">
-        <v>1878.32</v>
+        <v>2697.02</v>
       </c>
       <c r="L106">
-        <v>2409.1799999999998</v>
+        <v>5757.92</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>1500</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
@@ -4697,62 +4697,62 @@
         <v>0.4</v>
       </c>
       <c r="I107">
-        <v>289.16000000000003</v>
+        <v>617.6</v>
       </c>
       <c r="J107">
-        <v>25.393195939069901</v>
+        <v>24.199173539606601</v>
       </c>
       <c r="K107">
-        <v>4173.16</v>
+        <v>1567.28</v>
       </c>
       <c r="L107">
-        <v>5102.7</v>
+        <v>2731.12</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B108">
         <v>1500</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F108" t="s">
         <v>12</v>
       </c>
       <c r="G108">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I108">
-        <v>291.36</v>
+        <v>625.76</v>
       </c>
       <c r="J108">
-        <v>30.556020683328502</v>
+        <v>21.8380951550266</v>
       </c>
       <c r="K108">
-        <v>1634.08</v>
+        <v>3434.52</v>
       </c>
       <c r="L108">
-        <v>2130.62</v>
+        <v>5792.3</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B109">
         <v>1500</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -4767,16 +4767,16 @@
         <v>0.4</v>
       </c>
       <c r="I109">
-        <v>292</v>
+        <v>632.16</v>
       </c>
       <c r="J109">
-        <v>31.182046116315</v>
+        <v>21.2897721922992</v>
       </c>
       <c r="K109">
-        <v>2194.5</v>
+        <v>2782.82</v>
       </c>
       <c r="L109">
-        <v>2522.7399999999998</v>
+        <v>5882.16</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4787,13 +4787,13 @@
         <v>1500</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
@@ -4802,16 +4802,16 @@
         <v>0.2</v>
       </c>
       <c r="I110">
-        <v>299.88</v>
+        <v>632.84</v>
       </c>
       <c r="J110">
-        <v>28.544449548029402</v>
+        <v>23.241652264845499</v>
       </c>
       <c r="K110">
-        <v>1800.92</v>
+        <v>1608.94</v>
       </c>
       <c r="L110">
-        <v>2131.04</v>
+        <v>2818.44</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4822,36 +4822,36 @@
         <v>1500</v>
       </c>
       <c r="C111" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E111">
         <v>0.8</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G111">
         <v>0.4</v>
       </c>
       <c r="I111">
-        <v>314.27999999999997</v>
+        <v>637.4</v>
       </c>
       <c r="J111">
-        <v>35.0268696859996</v>
+        <v>23.783187338958498</v>
       </c>
       <c r="K111">
-        <v>1894.56</v>
+        <v>1545.04</v>
       </c>
       <c r="L111">
-        <v>2133.3200000000002</v>
+        <v>2827.34</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B112">
         <v>1500</v>
@@ -4866,36 +4866,36 @@
         <v>0.8</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G112">
         <v>0.4</v>
       </c>
       <c r="I112">
-        <v>319.24</v>
+        <v>639.4</v>
       </c>
       <c r="J112">
-        <v>27.270174183528699</v>
+        <v>26.9228527463194</v>
       </c>
       <c r="K112">
-        <v>3749.34</v>
+        <v>1154.5</v>
       </c>
       <c r="L112">
-        <v>4387.4799999999996</v>
+        <v>2390.44</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B113">
         <v>1500</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E113">
         <v>0.8</v>
@@ -4904,24 +4904,24 @@
         <v>12</v>
       </c>
       <c r="G113">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I113">
-        <v>319.60000000000002</v>
+        <v>644.20000000000005</v>
       </c>
       <c r="J113">
-        <v>26.469605210505101</v>
+        <v>20.572797573494899</v>
       </c>
       <c r="K113">
-        <v>3547.68</v>
+        <v>1454.44</v>
       </c>
       <c r="L113">
-        <v>4328.38</v>
+        <v>2822.32</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B114">
         <v>1500</v>
@@ -4936,22 +4936,22 @@
         <v>0.8</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G114">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I114">
-        <v>320.48</v>
+        <v>672.36</v>
       </c>
       <c r="J114">
-        <v>31.273145028922102</v>
+        <v>21.812620200241799</v>
       </c>
       <c r="K114">
-        <v>1820.28</v>
+        <v>2273.36</v>
       </c>
       <c r="L114">
-        <v>2130.3200000000002</v>
+        <v>5037.82</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4965,33 +4965,33 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>0.7</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G115">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I115">
-        <v>566.76</v>
+        <v>686.72</v>
       </c>
       <c r="J115">
-        <v>31.4855903549544</v>
+        <v>20.787534726369</v>
       </c>
       <c r="K115">
-        <v>3112.22</v>
+        <v>2108.58</v>
       </c>
       <c r="L115">
-        <v>5446.06</v>
+        <v>4769.42</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B116">
         <v>1500</v>
@@ -5000,28 +5000,28 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E116">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G116">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I116">
-        <v>595.44000000000005</v>
+        <v>692.72</v>
       </c>
       <c r="J116">
-        <v>29.2411764469215</v>
+        <v>17.282407239733701</v>
       </c>
       <c r="K116">
-        <v>1509.08</v>
+        <v>2267.04</v>
       </c>
       <c r="L116">
-        <v>2716.12</v>
+        <v>4802.42</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -5035,33 +5035,33 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>0.7</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I117">
-        <v>606.67999999999995</v>
+        <v>693.24</v>
       </c>
       <c r="J117">
-        <v>25.8290069495518</v>
+        <v>18.0305962186501</v>
       </c>
       <c r="K117">
-        <v>2944.18</v>
+        <v>2602.16</v>
       </c>
       <c r="L117">
-        <v>5467.1</v>
+        <v>4763.54</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B118">
         <v>1500</v>
@@ -5070,28 +5070,28 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E118">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
       </c>
       <c r="G118">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I118">
-        <v>617.6</v>
+        <v>694.16</v>
       </c>
       <c r="J118">
-        <v>24.199173539606601</v>
+        <v>15.516906908272601</v>
       </c>
       <c r="K118">
-        <v>1567.28</v>
+        <v>2226.1799999999998</v>
       </c>
       <c r="L118">
-        <v>2731.12</v>
+        <v>4791.9799999999996</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5105,10 +5105,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E119">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
@@ -5117,16 +5117,16 @@
         <v>0.2</v>
       </c>
       <c r="I119">
-        <v>625.76</v>
+        <v>695.56</v>
       </c>
       <c r="J119">
-        <v>21.8380951550266</v>
+        <v>18.5053073468127</v>
       </c>
       <c r="K119">
-        <v>3434.52</v>
+        <v>1981.16</v>
       </c>
       <c r="L119">
-        <v>5792.3</v>
+        <v>4757.54</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5140,33 +5140,33 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>0.8</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G120">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I120">
-        <v>632.16</v>
+        <v>695.84</v>
       </c>
       <c r="J120">
-        <v>21.2897721922992</v>
+        <v>16.1088298768098</v>
       </c>
       <c r="K120">
-        <v>2782.82</v>
+        <v>2309.7800000000002</v>
       </c>
       <c r="L120">
-        <v>5882.16</v>
+        <v>4794.04</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B121">
         <v>1500</v>
@@ -5175,7 +5175,7 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>0.8</v>
@@ -5184,24 +5184,24 @@
         <v>12</v>
       </c>
       <c r="G121">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I121">
-        <v>632.84</v>
+        <v>697.52</v>
       </c>
       <c r="J121">
-        <v>23.241652264845499</v>
+        <v>19.3144919684676</v>
       </c>
       <c r="K121">
-        <v>1608.94</v>
+        <v>2337.88</v>
       </c>
       <c r="L121">
-        <v>2818.44</v>
+        <v>4799.72</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B122">
         <v>1500</v>
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E122">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
@@ -5222,21 +5222,21 @@
         <v>0.4</v>
       </c>
       <c r="I122">
-        <v>644.20000000000005</v>
+        <v>699.56</v>
       </c>
       <c r="J122">
-        <v>20.572797573494899</v>
+        <v>14.866284001054201</v>
       </c>
       <c r="K122">
-        <v>1454.44</v>
+        <v>1976.92</v>
       </c>
       <c r="L122">
-        <v>2822.32</v>
+        <v>4757.84</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B123">
         <v>1500</v>
@@ -5248,30 +5248,30 @@
         <v>16</v>
       </c>
       <c r="E123">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G123">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I123">
-        <v>694.16</v>
+        <v>701.12</v>
       </c>
       <c r="J123">
-        <v>15.516906908272601</v>
+        <v>19.0458814445538</v>
       </c>
       <c r="K123">
-        <v>2226.1799999999998</v>
+        <v>1066.3</v>
       </c>
       <c r="L123">
-        <v>4791.9799999999996</v>
+        <v>2378.44</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B124">
         <v>1500</v>
@@ -5283,30 +5283,30 @@
         <v>16</v>
       </c>
       <c r="E124">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
       <c r="G124">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I124">
-        <v>695.56</v>
+        <v>702.64</v>
       </c>
       <c r="J124">
-        <v>18.5053073468127</v>
+        <v>20.5657579485901</v>
       </c>
       <c r="K124">
-        <v>1981.16</v>
+        <v>1243.0999999999999</v>
       </c>
       <c r="L124">
-        <v>4757.54</v>
+        <v>2395.42</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B125">
         <v>1500</v>
@@ -5318,7 +5318,7 @@
         <v>16</v>
       </c>
       <c r="E125">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
@@ -5327,21 +5327,21 @@
         <v>0.4</v>
       </c>
       <c r="I125">
-        <v>697.52</v>
+        <v>703.56</v>
       </c>
       <c r="J125">
-        <v>19.3144919684676</v>
+        <v>16.249504607833401</v>
       </c>
       <c r="K125">
-        <v>2337.88</v>
+        <v>1150.72</v>
       </c>
       <c r="L125">
-        <v>4799.72</v>
+        <v>2376.06</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>1500</v>
@@ -5353,25 +5353,25 @@
         <v>16</v>
       </c>
       <c r="E126">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I126">
-        <v>699.56</v>
+        <v>703.88</v>
       </c>
       <c r="J126">
-        <v>14.866284001054201</v>
+        <v>16.431238541266399</v>
       </c>
       <c r="K126">
-        <v>1976.92</v>
+        <v>1219.8800000000001</v>
       </c>
       <c r="L126">
-        <v>4757.84</v>
+        <v>2396.04</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -5391,22 +5391,22 @@
         <v>0.8</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G127">
         <v>0.4</v>
       </c>
       <c r="I127">
-        <v>702.64</v>
+        <v>706.92</v>
       </c>
       <c r="J127">
-        <v>20.5657579485901</v>
+        <v>17.6191259715117</v>
       </c>
       <c r="K127">
-        <v>1243.0999999999999</v>
+        <v>1197.32</v>
       </c>
       <c r="L127">
-        <v>2395.42</v>
+        <v>2400.02</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -5429,19 +5429,19 @@
         <v>12</v>
       </c>
       <c r="G128">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I128">
-        <v>703.56</v>
+        <v>707.48</v>
       </c>
       <c r="J128">
-        <v>16.249504607833401</v>
+        <v>18.290150354767398</v>
       </c>
       <c r="K128">
-        <v>1150.72</v>
+        <v>1219.56</v>
       </c>
       <c r="L128">
-        <v>2376.06</v>
+        <v>2373.8200000000002</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -5461,22 +5461,22 @@
         <v>0.7</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G129">
         <v>0.2</v>
       </c>
       <c r="I129">
-        <v>707.48</v>
+        <v>707.96</v>
       </c>
       <c r="J129">
-        <v>18.290150354767398</v>
+        <v>15.207840083325401</v>
       </c>
       <c r="K129">
-        <v>1219.56</v>
+        <v>1179.08</v>
       </c>
       <c r="L129">
-        <v>2373.8200000000002</v>
+        <v>2379.58</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
